--- a/LinksNoBorrar.xlsx
+++ b/LinksNoBorrar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaco\OneDrive\Desktop\Economic Trends\ProyectoKivy\GitFormulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B026BBDB-366C-4C26-936E-9FFFC9A11112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F97BFD0-FDB6-41D3-8407-8804509AC157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,35 @@
     <t>links</t>
   </si>
   <si>
-    <t>https://economictrends.limequery.com/214733?token=1234&amp;newtest=Y</t>
-  </si>
-  <si>
-    <t>https://economictrends.limequery.com/214733?token=SjoJgaX9S0jAwSX&amp;newtest=Y</t>
-  </si>
-  <si>
-    <t>https://economictrends.limequery.com/214733?token=6JT4SzEabFPac50&amp;newtest=Y</t>
-  </si>
-  <si>
-    <t>https://economictrends.limequery.com/214733?token=kHaTQnFSiFRan7w&amp;newtest=Y</t>
-  </si>
-  <si>
-    <t>https://economictrends.limequery.com/214733?token=4wZM1DvrrLb7rQ7&amp;newtest=Y</t>
+    <t>https://economictrends.limequery.com/661992?token=Oi31z&amp;newtest=Y</t>
+  </si>
+  <si>
+    <t>https://economictrends.limequery.com/661992?token=5xWAb&amp;newtest=Y</t>
+  </si>
+  <si>
+    <t>https://economictrends.limequery.com/661992?token=gSfPN&amp;newtest=Y</t>
+  </si>
+  <si>
+    <t>https://economictrends.limequery.com/661992?token=EL04E&amp;newtest=Y</t>
+  </si>
+  <si>
+    <t>https://economictrends.limequery.com/661992?token=6Omp4&amp;newtest=Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -68,13 +74,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,7 +389,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,7 +403,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -402,7 +411,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -410,7 +419,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -418,7 +427,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -426,12 +435,20 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C54C75ED-EEC7-4611-ABA4-64A2714B1EA1}"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="https://economictrends.limequery.com/661992?newtest=Y&amp;lang=es" xr:uid="{5656720A-4279-46D6-8FEB-6F0169BC310D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{182F124D-4B0E-474B-AF65-7B87D59E0C23}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{0087FA84-14E0-456B-A32D-03B464D88F56}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{CF8C478A-38E7-4C05-AB51-6A52758A2E84}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{9FC87461-EFF6-4DE7-BDC0-326D6DB6026B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>